--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEC25CD-50E1-4253-B9CE-85037FCC29D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800" firstSheet="13" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6200" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -37,11 +36,8 @@
     <sheet name="tc071" sheetId="26" r:id="rId27"/>
     <sheet name="tc072" sheetId="27" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -198,48 +194,48 @@
     <t>Req-id</t>
   </si>
   <si>
+    <t>TC-461</t>
+  </si>
+  <si>
+    <t>Req-Id</t>
+  </si>
+  <si>
+    <t>Expected-Pagination</t>
+  </si>
+  <si>
+    <t>tcid</t>
+  </si>
+  <si>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>testCase-Id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>RQ-7569</t>
+  </si>
+  <si>
+    <t>TC-25559</t>
+  </si>
+  <si>
     <t>testcaseId</t>
   </si>
   <si>
-    <t>TC-459</t>
-  </si>
-  <si>
-    <t>Req-Id</t>
-  </si>
-  <si>
-    <t>Expected-Pagination</t>
-  </si>
-  <si>
-    <t>tcid</t>
-  </si>
-  <si>
-    <t>tcName</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>testCase-Id</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>RQ-7569</t>
-  </si>
-  <si>
-    <t>TC-25559</t>
-  </si>
-  <si>
     <t>TC-458</t>
   </si>
   <si>
@@ -252,8 +248,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -265,23 +267,355 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -289,29 +623,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,17 +1188,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -629,18 +1250,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -654,21 +1277,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="17.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="18.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -695,18 +1320,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -720,65 +1347,69 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -798,169 +1429,179 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086FC864-88BE-4524-8C8E-D67D5CC31D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8253E48-AC13-4C68-9E15-DF10E463748C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="A1:D2 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="29.1">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="29" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="29.1">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="29" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -974,16 +1615,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -997,25 +1642,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C16204-518F-4A99-9E15-92D9161822C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1023,26 +1670,28 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="19.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="10.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1053,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1075,16 +1724,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA93A4-EF19-4F56-9442-DB07645E3971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1097,10 +1750,10 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1117,21 +1770,25 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C6F736-6B6A-4D47-9A3D-6735D564D2A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1169,50 +1826,52 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="13.1272727272727" customWidth="1"/>
+    <col min="6" max="6" width="19.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1229,53 +1888,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E3CF8-6B58-482B-86D6-D534C8F178AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="12.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="14.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC1A4B-7999-43EC-A9B0-80154C608585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1290,20 +1955,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904BE75-2DA2-4667-82ED-527A58FD3287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="16.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1318,20 +1985,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEBA48-046F-4F91-8E90-E6AC9BDD1146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1339,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1352,25 +2021,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:4">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +2079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1462,12 +2133,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +2146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +2154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +2162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1549,16 +2220,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1572,16 +2247,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1601,16 +2280,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1624,16 +2307,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1653,16 +2340,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1688,16 +2379,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1711,5 +2406,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29311"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF92D9B5-DFB2-43CA-976A-312904569C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6200" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -35,9 +36,13 @@
     <sheet name="tc070" sheetId="25" r:id="rId26"/>
     <sheet name="tc071" sheetId="26" r:id="rId27"/>
     <sheet name="tc072" sheetId="27" r:id="rId28"/>
+    <sheet name="tc073" sheetId="30" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>Epic</t>
   </si>
@@ -194,7 +199,10 @@
     <t>Req-id</t>
   </si>
   <si>
-    <t>TC-461</t>
+    <t>testcaseId</t>
+  </si>
+  <si>
+    <t>TC-458</t>
   </si>
   <si>
     <t>Req-Id</t>
@@ -233,29 +241,20 @@
     <t>TC-25559</t>
   </si>
   <si>
-    <t>testcaseId</t>
-  </si>
-  <si>
-    <t>TC-458</t>
-  </si>
-  <si>
     <t>RQ-438</t>
   </si>
   <si>
     <t>TC-382</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,355 +266,23 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -623,314 +290,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,19 +570,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1250,20 +630,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1277,23 +655,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="18.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1320,20 +696,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1347,69 +721,65 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="13.8727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="29.1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1429,179 +799,169 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086FC864-88BE-4524-8C8E-D67D5CC31D33}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8253E48-AC13-4C68-9E15-DF10E463748C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="A1:D2 C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29.1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:D2 C7"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="2" t="s">
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29.1">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1615,54 +975,48 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C16204-518F-4A99-9E15-92D9161822C5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1670,28 +1024,26 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="19.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="10.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1702,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1724,20 +1076,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA93A4-EF19-4F56-9442-DB07645E3971}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1750,10 +1098,10 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1770,25 +1118,21 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C6F736-6B6A-4D47-9A3D-6735D564D2A8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1826,52 +1170,50 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1272727272727" customWidth="1"/>
-    <col min="6" max="6" width="19.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1888,160 +1230,202 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E3CF8-6B58-482B-86D6-D534C8F178AB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC1A4B-7999-43EC-A9B0-80154C608585}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="14.3727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904BE75-2DA2-4667-82ED-527A58FD3287}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEBA48-046F-4F91-8E90-E6AC9BDD1146}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F856F1BD-60DF-4B45-AA48-6580610D0108}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="22.7545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.2545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="14.6272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2071,7 +1455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +1493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +1501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +1509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2133,12 +1517,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +1530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +1538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +1546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2220,20 +1604,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2247,20 +1627,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2280,20 +1656,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2307,20 +1679,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2340,20 +1708,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2379,20 +1743,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2406,6 +1766,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF92D9B5-DFB2-43CA-976A-312904569C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="10560" windowHeight="1410" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -37,12 +36,17 @@
     <sheet name="tc071" sheetId="26" r:id="rId27"/>
     <sheet name="tc072" sheetId="27" r:id="rId28"/>
     <sheet name="tc073" sheetId="30" r:id="rId29"/>
+    <sheet name="tc041" sheetId="31" r:id="rId30"/>
+    <sheet name="tc051" sheetId="32" r:id="rId31"/>
+    <sheet name="tc052" sheetId="33" r:id="rId32"/>
+    <sheet name="tc055" sheetId="34" r:id="rId33"/>
+    <sheet name="tc059" sheetId="35" r:id="rId34"/>
+    <sheet name="tc060" sheetId="36" r:id="rId35"/>
+    <sheet name="tc066" sheetId="37" r:id="rId36"/>
+    <sheet name="tc067" sheetId="38" r:id="rId37"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="76">
   <si>
     <t>Epic</t>
   </si>
@@ -109,9 +113,6 @@
     <t>Epic Count</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -178,7 +179,10 @@
     <t>TestcaseId</t>
   </si>
   <si>
-    <t>TC-369</t>
+    <t>RQ-443</t>
+  </si>
+  <si>
+    <t>TC-528</t>
   </si>
   <si>
     <t>requirementId</t>
@@ -202,45 +206,45 @@
     <t>testcaseId</t>
   </si>
   <si>
+    <t>TC-529</t>
+  </si>
+  <si>
+    <t>Req-Id</t>
+  </si>
+  <si>
+    <t>Expected-Pagination</t>
+  </si>
+  <si>
+    <t>tcid</t>
+  </si>
+  <si>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>testCase-Id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>TC-453</t>
+  </si>
+  <si>
     <t>TC-458</t>
   </si>
   <si>
-    <t>Req-Id</t>
-  </si>
-  <si>
-    <t>Expected-Pagination</t>
-  </si>
-  <si>
-    <t>tcid</t>
-  </si>
-  <si>
-    <t>tcName</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>testCase-Id</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>RQ-7569</t>
-  </si>
-  <si>
-    <t>TC-25559</t>
-  </si>
-  <si>
     <t>RQ-438</t>
   </si>
   <si>
@@ -249,12 +253,57 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>rqName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>qaUser</t>
+  </si>
+  <si>
+    <t>preCondition</t>
+  </si>
+  <si>
+    <t>New_tc</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Vivek Rajput</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>rQtitle</t>
+  </si>
+  <si>
+    <t>SET Drive</t>
+  </si>
+  <si>
+    <t>tcId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -263,9 +312,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF475467"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -273,16 +330,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,29 +684,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,17 +1251,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -630,22 +1313,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -655,32 +1340,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="17.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="18.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -688,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -696,133 +1383,141 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="13.8727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="29.1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086FC864-88BE-4524-8C8E-D67D5CC31D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -830,18 +1525,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8253E48-AC13-4C68-9E15-DF10E463748C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -853,115 +1550,121 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:D2 C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="A1:D2 C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="29.1">
-      <c r="A1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="29.1">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="29.1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29.1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -970,21 +1673,25 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -998,18 +1705,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C16204-518F-4A99-9E15-92D9161822C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1021,7 +1730,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -1029,21 +1738,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="19.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="10.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1065,10 +1776,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1076,16 +1787,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA93A4-EF19-4F56-9442-DB07645E3971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1095,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>50</v>
@@ -1109,13 +1824,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -1123,16 +1838,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C6F736-6B6A-4D47-9A3D-6735D564D2A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1142,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -1156,10 +1875,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -1170,22 +1889,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="13.1272727272727" customWidth="1"/>
+    <col min="6" max="6" width="19.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1210,73 +1931,79 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E3CF8-6B58-482B-86D6-D534C8F178AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="12.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="14.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC1A4B-7999-43EC-A9B0-80154C608585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1291,20 +2018,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904BE75-2DA2-4667-82ED-527A58FD3287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="16.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1319,20 +2048,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEBA48-046F-4F91-8E90-E6AC9BDD1146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1353,267 +2084,587 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F856F1BD-60DF-4B45-AA48-6580610D0108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="13.7545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="15.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:4">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1627,20 +2678,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1651,21 +2706,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1674,21 +2733,25 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1708,26 +2771,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1738,33 +2805,38 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10560" windowHeight="1410" firstSheet="13" activeTab="19"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>RQ-443</t>
   </si>
   <si>
-    <t>TC-528</t>
+    <t>TC-517</t>
   </si>
   <si>
     <t>requirementId</t>
@@ -1501,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1714,7 +1714,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="13" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -1392,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1501,7 +1501,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -36,14 +36,6 @@
     <sheet name="tc071" sheetId="26" r:id="rId27"/>
     <sheet name="tc072" sheetId="27" r:id="rId28"/>
     <sheet name="tc073" sheetId="30" r:id="rId29"/>
-    <sheet name="tc041" sheetId="31" r:id="rId30"/>
-    <sheet name="tc051" sheetId="32" r:id="rId31"/>
-    <sheet name="tc052" sheetId="33" r:id="rId32"/>
-    <sheet name="tc055" sheetId="34" r:id="rId33"/>
-    <sheet name="tc059" sheetId="35" r:id="rId34"/>
-    <sheet name="tc060" sheetId="36" r:id="rId35"/>
-    <sheet name="tc066" sheetId="37" r:id="rId36"/>
-    <sheet name="tc067" sheetId="38" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
   <si>
     <t>Epic</t>
   </si>
@@ -179,10 +171,7 @@
     <t>TestcaseId</t>
   </si>
   <si>
-    <t>RQ-443</t>
-  </si>
-  <si>
-    <t>TC-517</t>
+    <t>TC-369</t>
   </si>
   <si>
     <t>requirementId</t>
@@ -206,7 +195,7 @@
     <t>testcaseId</t>
   </si>
   <si>
-    <t>TC-529</t>
+    <t>TC-458</t>
   </si>
   <si>
     <t>Req-Id</t>
@@ -242,9 +231,6 @@
     <t>TC-453</t>
   </si>
   <si>
-    <t>TC-458</t>
-  </si>
-  <si>
     <t>RQ-438</t>
   </si>
   <si>
@@ -252,45 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>rqName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>qaUser</t>
-  </si>
-  <si>
-    <t>preCondition</t>
-  </si>
-  <si>
-    <t>New_tc</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Vivek Rajput</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>rQtitle</t>
-  </si>
-  <si>
-    <t>SET Drive</t>
-  </si>
-  <si>
-    <t>tcId</t>
   </si>
 </sst>
 </file>
@@ -303,23 +250,10 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF475467"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -785,19 +719,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,138 +749,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1392,8 +1324,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1430,30 +1362,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1502,25 +1434,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1544,109 +1476,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:D2 C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:D2 C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="2" ht="29" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1715,25 +1647,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1765,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1813,10 +1745,10 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1833,7 +1765,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -1881,7 +1813,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1898,8 +1830,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1911,22 +1843,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1934,7 +1866,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1961,7 +1893,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1971,19 +1903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2008,12 +1940,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2038,12 +1970,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2068,18 +2000,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2105,37 +2037,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>62</v>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>62</v>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2343,318 +2275,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2748,7 +2368,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="18" activeTab="23"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
   <si>
     <t>Epic</t>
   </si>
@@ -102,7 +102,10 @@
     <t>Label Name</t>
   </si>
   <si>
-    <t>Epic Count</t>
+    <t>project name</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
   </si>
   <si>
     <t/>
@@ -250,7 +253,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -262,6 +265,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
     </font>
     <font>
@@ -719,157 +728,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,7 +1272,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1293,13 +1303,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1307,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1332,12 +1342,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1369,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1380,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1408,18 +1418,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1441,18 +1451,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1477,12 +1487,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1510,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:4">
@@ -1521,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1555,13 +1565,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:5">
@@ -1569,16 +1579,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1600,12 +1610,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1654,18 +1664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1697,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1708,10 +1718,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1742,13 +1752,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1756,16 +1766,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1793,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -1807,13 +1817,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1830,7 +1840,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1843,30 +1853,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1904,18 +1914,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1940,12 +1950,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1970,12 +1980,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2000,18 +2010,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2044,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2058,16 +2068,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2081,8 +2091,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -2093,180 +2103,180 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2">
-        <v>11</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2325,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2326,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2363,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2408,13 +2418,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2425,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2447,12 +2457,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
   <si>
     <t>Epic</t>
   </si>
@@ -102,10 +102,7 @@
     <t>Label Name</t>
   </si>
   <si>
-    <t>project name</t>
-  </si>
-  <si>
-    <t>STG- PulseCodeOnAzureCloud</t>
+    <t>Epic Count</t>
   </si>
   <si>
     <t/>
@@ -253,7 +250,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -265,12 +262,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <charset val="134"/>
     </font>
     <font>
@@ -728,158 +719,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1272,7 +1262,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1303,13 +1293,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1317,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1342,12 +1332,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1390,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1418,18 +1408,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1451,18 +1441,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +1477,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:4">
@@ -1531,13 +1521,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1565,13 +1555,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:5">
@@ -1579,16 +1569,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1610,12 +1600,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1664,18 +1654,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1707,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1718,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1752,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1766,16 +1756,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -1817,13 +1807,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1840,7 +1830,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1853,30 +1843,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1914,18 +1904,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1950,12 +1940,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1980,12 +1970,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2010,18 +2000,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2054,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2068,16 +2058,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2091,8 +2081,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -2103,180 +2093,180 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
+      <c r="A2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2315,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2336,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2353,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2418,13 +2408,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2435,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2457,12 +2447,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="18" activeTab="23"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -36,6 +36,13 @@
     <sheet name="tc071" sheetId="26" r:id="rId27"/>
     <sheet name="tc072" sheetId="27" r:id="rId28"/>
     <sheet name="tc073" sheetId="30" r:id="rId29"/>
+    <sheet name="tc041" sheetId="31" r:id="rId30"/>
+    <sheet name="tc051" sheetId="32" r:id="rId31"/>
+    <sheet name="tc052" sheetId="33" r:id="rId32"/>
+    <sheet name="tc059" sheetId="34" r:id="rId33"/>
+    <sheet name="tc066" sheetId="35" r:id="rId34"/>
+    <sheet name="tc067" sheetId="36" r:id="rId35"/>
+    <sheet name="tc060" sheetId="37" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="76">
   <si>
     <t>Epic</t>
   </si>
@@ -84,7 +91,7 @@
     <t>Feature Mohit</t>
   </si>
   <si>
-    <t>RQ-469</t>
+    <t>RQ-679</t>
   </si>
   <si>
     <t>Tc-08</t>
@@ -102,7 +109,10 @@
     <t>Label Name</t>
   </si>
   <si>
-    <t>Epic Count</t>
+    <t>project name</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
   </si>
   <si>
     <t/>
@@ -171,7 +181,7 @@
     <t>TestcaseId</t>
   </si>
   <si>
-    <t>TC-369</t>
+    <t>TC-477</t>
   </si>
   <si>
     <t>requirementId</t>
@@ -195,42 +205,45 @@
     <t>testcaseId</t>
   </si>
   <si>
+    <t>TC-464</t>
+  </si>
+  <si>
+    <t>Req-Id</t>
+  </si>
+  <si>
+    <t>Expected-Pagination</t>
+  </si>
+  <si>
+    <t>tcid</t>
+  </si>
+  <si>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>testCase-Id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>TC-437</t>
+  </si>
+  <si>
     <t>TC-458</t>
   </si>
   <si>
-    <t>Req-Id</t>
-  </si>
-  <si>
-    <t>Expected-Pagination</t>
-  </si>
-  <si>
-    <t>tcid</t>
-  </si>
-  <si>
-    <t>tcName</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>testCase-Id</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>TC-453</t>
-  </si>
-  <si>
     <t>RQ-438</t>
   </si>
   <si>
@@ -238,6 +251,45 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>rqName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>qaUser</t>
+  </si>
+  <si>
+    <t>preCondition</t>
+  </si>
+  <si>
+    <t>New_tc</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Vivek Rajput</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>rQtitle</t>
+  </si>
+  <si>
+    <t>SET Drive</t>
+  </si>
+  <si>
+    <t>tcId</t>
   </si>
 </sst>
 </file>
@@ -250,7 +302,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -259,9 +311,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF475467"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0BA5EC"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -719,157 +796,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1273,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1227,7 +1308,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -1262,7 +1343,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1293,13 +1374,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1307,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1332,12 +1413,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1362,32 +1443,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1401,25 +1482,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1433,26 +1514,26 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1476,109 +1557,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:D2 C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" ht="29" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1600,12 +1681,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1646,26 +1727,26 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1697,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1708,10 +1789,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1742,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1756,16 +1837,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1793,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -1807,13 +1888,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1830,8 +1911,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1842,42 +1923,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1893,7 +1974,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1903,19 +1984,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1940,12 +2021,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1970,12 +2051,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2000,18 +2081,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2107,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2037,37 +2118,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2163,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -2093,180 +2174,467 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2">
-        <v>11</v>
+      <c r="A2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="9.25454545454545" customWidth="1"/>
+    <col min="6" max="6" width="10.2545454545455" customWidth="1"/>
+    <col min="7" max="7" width="10.7545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="6" width="10.2545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2326,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2721,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2408,13 +2776,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2425,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2447,12 +2815,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="13" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -297,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -325,13 +325,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
     </font>
@@ -339,7 +332,7 @@
       <sz val="9"/>
       <color rgb="FF0BA5EC"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -796,152 +789,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -950,7 +943,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,7 +951,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1308,7 +1300,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -1406,7 +1398,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1515,7 +1507,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1912,7 +1904,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1923,42 +1915,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
@@ -1974,7 +1966,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2163,7 +2155,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -2174,7 +2166,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2648,8 +2640,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="13" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -297,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -325,6 +325,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
     </font>
@@ -332,7 +339,7 @@
       <sz val="9"/>
       <color rgb="FF0BA5EC"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -789,152 +796,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,6 +950,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,7 +959,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1300,7 +1308,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -1398,7 +1406,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1507,7 +1515,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1904,7 +1912,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1915,42 +1923,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1966,7 +1974,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2155,7 +2163,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -2166,7 +2174,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2640,8 +2648,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>

--- a/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
+++ b/testData/authorTestTabTestData/authorTestCaseTab_testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29429"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B48B7B9-66BA-45E3-AB82-9A8FF6DBF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddTest" sheetId="2" r:id="rId1"/>
@@ -44,8 +45,11 @@
     <sheet name="tc067" sheetId="36" r:id="rId35"/>
     <sheet name="tc060" sheetId="37" r:id="rId36"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -112,7 +116,7 @@
     <t>project name</t>
   </si>
   <si>
-    <t>STG- PulseCodeOnAzureCloud</t>
+    <t>STG- PulseCodeOnAzureCloude</t>
   </si>
   <si>
     <t/>
@@ -295,14 +299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -311,10 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF475467"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -323,11 +320,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color rgb="FF475467"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -339,355 +335,18 @@
       <sz val="9"/>
       <color rgb="FF0BA5EC"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -695,318 +354,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1264,19 +637,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1301,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1326,20 +699,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1353,23 +724,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="18.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1396,20 +765,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1423,69 +790,65 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="13.8727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="29.1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1505,53 +868,53 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086FC864-88BE-4524-8C8E-D67D5CC31D33}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8253E48-AC13-4C68-9E15-DF10E463748C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -1568,116 +931,110 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="2" t="s">
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="29.1">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="29.1">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1691,20 +1048,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1718,20 +1071,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C16204-518F-4A99-9E15-92D9161822C5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1751,23 +1102,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="19.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="10.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1800,20 +1149,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA93A4-EF19-4F56-9442-DB07645E3971}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1851,20 +1196,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C6F736-6B6A-4D47-9A3D-6735D564D2A8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1902,121 +1243,115 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1272727272727" customWidth="1"/>
-    <col min="6" max="6" width="19.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E3CF8-6B58-482B-86D6-D534C8F178AB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="14.3727272727273" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC1A4B-7999-43EC-A9B0-80154C608585}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2031,22 +1366,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904BE75-2DA2-4667-82ED-527A58FD3287}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2061,22 +1394,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEBA48-046F-4F91-8E90-E6AC9BDD1146}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.6272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2097,83 +1428,82 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F856F1BD-60DF-4B45-AA48-6580610D0108}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.7545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="15.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="33">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="33">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4" ht="13.5">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +1533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2211,7 +1541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +1549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2230,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2241,7 +1571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2249,7 +1579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2257,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2265,12 +1595,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2278,7 +1608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +1616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2294,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2352,24 +1682,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2AE599-8749-4FEB-AADF-97800FD166F6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9.25454545454545" customWidth="1"/>
-    <col min="6" max="6" width="10.2545454545455" customWidth="1"/>
-    <col min="7" max="7" width="10.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2420,22 +1748,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC885B18-8D7B-4141-98D3-4064592E6866}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="10.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2486,20 +1812,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F42AD-06FB-4F9A-BDC5-0D988CFBC7C0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2519,20 +1843,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD0E29D-0CA1-467B-B75D-731ABD724820}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2552,23 +1874,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32378A89-E73B-434C-9031-5BC597A1049F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2579,23 +1899,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01634569-4DCA-4114-8B9F-D11F9C8D6829}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2606,20 +1924,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EC422E-61E5-4D5C-9000-57CFDB7C1C6E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2639,20 +1953,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2666,20 +1978,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2699,20 +2007,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2726,20 +2030,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2759,20 +2059,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2798,20 +2094,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2825,6 +2117,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>